--- a/azmoon_1_participant.xlsx
+++ b/azmoon_1_participant.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,53 +457,10 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>mohsen</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>hasnai</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>09100069381</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0025109391</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Ostad</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mohammadhosein</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09120938128</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0025109392</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>daneshamoz</t>
         </is>
